--- a/FinalProject/Documents/User Stories.xlsx
+++ b/FinalProject/Documents/User Stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\Dropbox\Documents\School\Data Visualization 209\Final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\Dropbox\Documents\School\Data Visualization 209\Final project\github\W209-\FinalProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>As a…</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>Profitability</t>
+  </si>
+  <si>
+    <t>Weather Alerts</t>
+  </si>
+  <si>
+    <t>Get extreme weather alerts</t>
+  </si>
+  <si>
+    <t>Execute the appropriate procedure</t>
   </si>
 </sst>
 </file>
@@ -413,6 +422,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -420,15 +438,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -448,8 +457,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID" dataDxfId="4"/>
     <tableColumn id="2" name="Name" dataDxfId="3"/>
@@ -758,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -827,16 +836,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,33 +853,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -878,16 +887,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -895,13 +904,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
@@ -912,32 +921,49 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>24</v>
       </c>
     </row>
